--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,255 +49,252 @@
     <t>thin</t>
   </si>
   <si>
-    <t>ripped</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>tiny</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>probably</t>
   </si>
   <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>di</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>fl</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>picture</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>better</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>could</t>
   </si>
   <si>
+    <t>look</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
-    <t>worked</t>
+    <t>pieces</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>got</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -310,97 +307,103 @@
     <t>love</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>every</t>
+    <t>birthday</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>book</t>
   </si>
   <si>
+    <t>grand</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
-    <t>grand</t>
+    <t>children</t>
+  </si>
+  <si>
+    <t>playing</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
-    <t>playing</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>grandson</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>son</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>positive</t>
@@ -761,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +772,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -851,16 +854,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3">
-        <v>0.9285714285714286</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="L3">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -872,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -901,16 +904,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +933,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8620689655172413</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -972,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -980,13 +983,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8148148148148148</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6">
         <v>0.8279569892473119</v>
@@ -1030,13 +1033,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7526881720430108</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1048,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K7">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,13 +1083,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7464788732394366</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1098,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K8">
-        <v>0.6415094339622641</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1122,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1130,13 +1133,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.734375</v>
+        <v>0.71875</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1148,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K9">
-        <v>0.6398852223816356</v>
+        <v>0.6355810616929699</v>
       </c>
       <c r="L9">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M9">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1172,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1180,13 +1183,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6824324324324325</v>
+        <v>0.6941747572815534</v>
       </c>
       <c r="C10">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D10">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1198,19 +1201,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>0.5809128630705395</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="L10">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>202</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1230,13 +1233,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6727272727272727</v>
+        <v>0.6824324324324325</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1248,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>0.5652173913043478</v>
+        <v>0.58298755186722</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1272,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>30</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1280,13 +1283,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6650485436893204</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1298,19 +1301,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K12">
-        <v>0.541871921182266</v>
+        <v>0.5295566502463054</v>
       </c>
       <c r="L12">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="M12">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1330,13 +1333,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6578947368421053</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1348,31 +1351,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>0.4606060606060606</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="L13">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="M13">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1380,13 +1383,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6386554621848739</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C14">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1398,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K14">
-        <v>0.4444444444444444</v>
+        <v>0.4397590361445783</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1422,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1451,16 +1454,16 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K15">
-        <v>0.4342507645259939</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="L15">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1472,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>185</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1480,13 +1483,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5925925925925926</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1498,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16">
-        <v>0.375</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1522,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1551,16 +1554,16 @@
         <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K17">
-        <v>0.3728813559322034</v>
+        <v>0.3975535168195719</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1572,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>37</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1580,49 +1583,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5784883720930233</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C18">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K18">
-        <v>0.3243243243243243</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L18">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M18">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1630,13 +1633,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1648,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19">
-        <v>0.3203125</v>
+        <v>0.359375</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1672,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1680,13 +1683,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5370370370370371</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1698,31 +1701,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K20">
-        <v>0.2741935483870968</v>
+        <v>0.32</v>
       </c>
       <c r="L20">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="N20">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="O20">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>180</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1730,49 +1733,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5208333333333334</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>25</v>
       </c>
-      <c r="D21">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>23</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K21">
-        <v>0.2657342657342657</v>
+        <v>0.2822580645161291</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1780,13 +1783,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5111111111111111</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1798,31 +1801,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K22">
-        <v>0.2532865907099036</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="L22">
-        <v>289</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>852</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1830,13 +1833,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5060240963855421</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C23">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,31 +1851,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K23">
-        <v>0.2528735632183908</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>65</v>
+        <v>871</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1880,13 +1883,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4960629921259843</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1898,19 +1901,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K24">
-        <v>0.248</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1922,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1951,16 +1954,16 @@
         <v>48</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K25">
-        <v>0.246031746031746</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1972,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1980,13 +1983,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4881516587677725</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="C26">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1998,31 +2001,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K26">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2030,13 +2033,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4693877551020408</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2048,19 +2051,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K27">
-        <v>0.1711229946524064</v>
+        <v>0.1838440111420613</v>
       </c>
       <c r="L27">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2072,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2080,13 +2083,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4583333333333333</v>
+        <v>0.4881516587677725</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2098,31 +2101,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K28">
-        <v>0.1708683473389356</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L28">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>296</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2130,13 +2133,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4545454545454545</v>
+        <v>0.46875</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2148,19 +2151,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K29">
-        <v>0.1553524804177546</v>
+        <v>0.1533333333333333</v>
       </c>
       <c r="L29">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="M29">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>0.96</v>
@@ -2172,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>1294</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2180,13 +2183,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4296875</v>
+        <v>0.453125</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2198,31 +2201,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K30">
-        <v>0.152317880794702</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>128</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2230,13 +2233,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4262295081967213</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2248,19 +2251,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K31">
-        <v>0.125</v>
+        <v>0.1486310299869622</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="N31">
         <v>0.97</v>
@@ -2272,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>224</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2280,7 +2283,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.421875</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C32">
         <v>27</v>
@@ -2298,31 +2301,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K32">
-        <v>0.096875</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N32">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="O32">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>289</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2330,13 +2333,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4166666666666667</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2348,31 +2351,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K33">
-        <v>0.09274193548387097</v>
+        <v>0.1152647975077882</v>
       </c>
       <c r="L33">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N33">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O33">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>675</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2380,13 +2383,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4157303370786517</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2398,31 +2401,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K34">
-        <v>0.08465608465608465</v>
+        <v>0.1137254901960784</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N34">
-        <v>0.64</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0.36</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>346</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2430,13 +2433,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4126984126984127</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2448,31 +2451,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K35">
-        <v>0.08</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N35">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O35">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2480,13 +2483,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4032258064516129</v>
+        <v>0.4029850746268657</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2498,31 +2501,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K36">
-        <v>0.07780979827089338</v>
+        <v>0.1</v>
       </c>
       <c r="L36">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N36">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="O36">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>640</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2530,13 +2533,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.396551724137931</v>
+        <v>0.3861386138613861</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2548,31 +2551,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K37">
-        <v>0.07741935483870968</v>
+        <v>0.08993288590604027</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="N37">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="O37">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>286</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2580,13 +2583,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3712871287128713</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C38">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2598,31 +2601,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K38">
-        <v>0.07529411764705882</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N38">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="O38">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2630,7 +2633,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3650793650793651</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="C39">
         <v>23</v>
@@ -2648,31 +2651,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K39">
-        <v>0.06797853309481217</v>
+        <v>0.05605786618444846</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N39">
-        <v>0.86</v>
+        <v>0.72</v>
       </c>
       <c r="O39">
-        <v>0.14</v>
+        <v>0.28</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2680,49 +2683,49 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3247863247863248</v>
+        <v>0.3298969072164948</v>
       </c>
       <c r="C40">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>33</v>
+      </c>
+      <c r="E40">
+        <v>0.03</v>
+      </c>
+      <c r="F40">
+        <v>0.97</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>65</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K40">
+        <v>0.05459770114942529</v>
+      </c>
+      <c r="L40">
         <v>38</v>
       </c>
-      <c r="D40">
-        <v>38</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>79</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K40">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="L40">
-        <v>32</v>
-      </c>
       <c r="M40">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="N40">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O40">
-        <v>0.11</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>464</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2730,13 +2733,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3243243243243243</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2748,7 +2751,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>50</v>
+        <v>80</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K41">
+        <v>0.05040322580645161</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>29</v>
+      </c>
+      <c r="N41">
+        <v>0.86</v>
+      </c>
+      <c r="O41">
+        <v>0.14</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2756,13 +2783,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3163265306122449</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2774,7 +2801,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>67</v>
+        <v>54</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42">
+        <v>0.03631284916201118</v>
+      </c>
+      <c r="L42">
+        <v>26</v>
+      </c>
+      <c r="M42">
+        <v>104</v>
+      </c>
+      <c r="N42">
+        <v>0.25</v>
+      </c>
+      <c r="O42">
+        <v>0.75</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2782,25 +2833,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3005181347150259</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="C43">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D43">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>135</v>
+        <v>64</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K43">
+        <v>0.03422619047619048</v>
+      </c>
+      <c r="L43">
+        <v>23</v>
+      </c>
+      <c r="M43">
+        <v>43</v>
+      </c>
+      <c r="N43">
+        <v>0.53</v>
+      </c>
+      <c r="O43">
+        <v>0.47</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2808,13 +2883,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2989690721649484</v>
+        <v>0.2938144329896907</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2826,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>68</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2834,13 +2909,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2784810126582278</v>
+        <v>0.285</v>
       </c>
       <c r="C45">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D45">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2852,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>228</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2860,25 +2935,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2747252747252747</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C46">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2886,13 +2961,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.26</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C47">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D47">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2904,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>148</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2912,25 +2987,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2577319587628866</v>
+        <v>0.2523364485981308</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2938,25 +3013,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2554744525547445</v>
+        <v>0.25</v>
       </c>
       <c r="C49">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D49">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>204</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2964,25 +3039,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.25</v>
+        <v>0.2492537313432836</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>105</v>
+        <v>503</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2990,25 +3065,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2457627118644068</v>
+        <v>0.2412698412698413</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>89</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3016,25 +3091,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2432835820895522</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C52">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="D52">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="E52">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>507</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3042,25 +3117,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2427745664739884</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C53">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D53">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E53">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>262</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3068,13 +3143,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.2356687898089172</v>
+        <v>0.2289719626168224</v>
       </c>
       <c r="C54">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D54">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3086,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3094,25 +3169,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2244444444444444</v>
+        <v>0.2254545454545455</v>
       </c>
       <c r="C55">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D55">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="E55">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F55">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>349</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3120,25 +3195,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2206572769953052</v>
+        <v>0.2243589743589744</v>
       </c>
       <c r="C56">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D56">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E56">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F56">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>166</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3146,25 +3221,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2183544303797468</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="C57">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D57">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>247</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3172,13 +3247,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2157894736842105</v>
+        <v>0.2123893805309734</v>
       </c>
       <c r="C58">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D58">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E58">
         <v>0.02</v>
@@ -3190,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>149</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3198,25 +3273,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2149532710280374</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E59">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>84</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3224,25 +3299,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2126436781609195</v>
+        <v>0.185792349726776</v>
       </c>
       <c r="C60">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D60">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E60">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3250,13 +3325,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.2076923076923077</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="C61">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D61">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3268,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3276,25 +3351,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1904761904761905</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D62">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E62">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="F62">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>102</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3302,13 +3377,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1822916666666667</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C63">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3320,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>157</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3328,25 +3403,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1795918367346939</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C64">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D64">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E64">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F64">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3354,13 +3429,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1788617886178862</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E65">
         <v>0.04</v>
@@ -3372,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3380,25 +3455,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1693989071038251</v>
+        <v>0.1456043956043956</v>
       </c>
       <c r="C66">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D66">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>152</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3406,25 +3481,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1688311688311688</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="C67">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>128</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3432,25 +3507,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1685823754789272</v>
+        <v>0.1396011396011396</v>
       </c>
       <c r="C68">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D68">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E68">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="F68">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>217</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3458,25 +3533,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.1684782608695652</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="C69">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D69">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E69">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="F69">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>153</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3484,25 +3559,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1460055096418733</v>
+        <v>0.1346938775510204</v>
       </c>
       <c r="C70">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E70">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F70">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>310</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3510,25 +3585,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1375</v>
+        <v>0.1247058823529412</v>
       </c>
       <c r="C71">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D71">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E71">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="F71">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>138</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3536,25 +3611,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1278409090909091</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="C72">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D72">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F72">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>307</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3562,25 +3637,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1235955056179775</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="C73">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D73">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E73">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>390</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3588,25 +3663,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1204188481675393</v>
+        <v>0.1145510835913313</v>
       </c>
       <c r="C74">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D74">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E74">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="F74">
-        <v>0.8200000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>168</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3614,25 +3689,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1164725457570715</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="C75">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D75">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="E75">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="F75">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>531</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3640,25 +3715,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1142857142857143</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C76">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D76">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E76">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F76">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3666,25 +3741,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1092636579572447</v>
+        <v>0.1054545454545455</v>
       </c>
       <c r="C77">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D77">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E77">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="F77">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>375</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3692,25 +3767,25 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1021897810218978</v>
+        <v>0.1015625</v>
       </c>
       <c r="C78">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D78">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="E78">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="F78">
-        <v>0.8200000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>246</v>
+        <v>690</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3718,25 +3793,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.08962264150943396</v>
+        <v>0.09932659932659933</v>
       </c>
       <c r="C79">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D79">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="E79">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="F79">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>386</v>
+        <v>535</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3744,25 +3819,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.08670520231213873</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="C80">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D80">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E80">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F80">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>316</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3770,25 +3845,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.08667529107373868</v>
+        <v>0.07209302325581396</v>
       </c>
       <c r="C81">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D81">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E81">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="F81">
-        <v>0.76</v>
+        <v>0.65</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>706</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3796,25 +3871,25 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.07870370370370371</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C82">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D82">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="F82">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>597</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3822,51 +3897,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05410821643286573</v>
+        <v>0.05811623246492986</v>
       </c>
       <c r="C83">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E83">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="F83">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84">
-        <v>0.05361305361305362</v>
-      </c>
-      <c r="C84">
-        <v>23</v>
-      </c>
-      <c r="D84">
-        <v>41</v>
-      </c>
-      <c r="E84">
-        <v>0.44</v>
-      </c>
-      <c r="F84">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>406</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
